--- a/data/n2v/tables/model-1200-1325-20230828-70.xlsx
+++ b/data/n2v/tables/model-1200-1325-20230828-70.xlsx
@@ -4816,7 +4816,7 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -8452,7 +8452,7 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
